--- a/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO_REC10.xlsx
+++ b/fuentes/contenidos/grado11/guion01/SolicitudGrafica-MA_11_01_CO_REC10.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="160">
   <si>
     <t>Fecha:</t>
   </si>
@@ -540,12 +540,6 @@
     <t>Cifras del numero pi</t>
   </si>
   <si>
-    <t>Primera diapositiva</t>
-  </si>
-  <si>
-    <t>Realizada por el autor</t>
-  </si>
-  <si>
     <t>F1</t>
   </si>
   <si>
@@ -555,7 +549,10 @@
     <t>IMG05</t>
   </si>
   <si>
-    <t>Realizada desde edición</t>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Ok</t>
   </si>
 </sst>
 </file>
@@ -2590,9 +2587,9 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:P72"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2693,7 +2690,7 @@
         <v>Motor del recurso</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5" s="45"/>
       <c r="I5" s="66"/>
@@ -2824,7 +2821,7 @@
         <v>154</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:16" s="12" customFormat="1" ht="208.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2862,7 +2859,7 @@
       </c>
       <c r="J11" s="14"/>
       <c r="K11" s="71" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:16" s="12" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.25">
@@ -2877,7 +2874,7 @@
         <v>Recurso F1</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" s="14" t="s">
         <v>146</v>
@@ -2900,7 +2897,7 @@
       </c>
       <c r="J12" s="70"/>
       <c r="K12" s="71" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="12" customFormat="1" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2932,12 +2929,12 @@
       <c r="I13" s="14"/>
       <c r="J13"/>
       <c r="K13" s="19" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="12" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B14" s="23" t="s">
         <v>147</v>
@@ -2970,7 +2967,7 @@
       </c>
       <c r="J14" s="14"/>
       <c r="K14" s="19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.25">
